--- a/TREVEL виз центр новий.xlsx
+++ b/TREVEL виз центр новий.xlsx
@@ -570,18 +570,8 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ДОГОІР СТРАХУВАННЯ ПОДОРОЖУЮЧИХ ЗА КОРДОН                                                                                                                                                                     CONTRACT OF INSURANCE OF PERSONS TRAVELLINGABROAD
+    <t xml:space="preserve">ДОГОІР СТРАХУВАННЯ ПОДОРОЖУЮЧИХ ЗА КОРДОН                                                                                                                                                                     CONTRACT OF INSURANCE OF PERSONS TRAVELLINGABROAD
 </t>
-    </r>
   </si>
   <si>
     <r>
@@ -863,7 +853,7 @@
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -950,6 +940,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF2A6099"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -1018,25 +1015,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF2A6099"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -1404,7 +1387,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="140">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1437,27 +1420,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1465,15 +1448,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1481,15 +1464,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1501,11 +1484,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1521,7 +1504,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1529,11 +1512,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1541,7 +1524,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1549,11 +1532,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1569,11 +1552,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1581,11 +1560,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1593,12 +1572,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1625,19 +1600,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1645,7 +1612,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1661,7 +1628,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1669,19 +1636,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1697,11 +1664,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1709,27 +1692,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1737,27 +1704,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1765,11 +1728,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1781,11 +1744,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1793,23 +1752,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1829,7 +1788,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1841,27 +1800,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1869,10 +1828,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1881,7 +1836,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1893,15 +1848,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1913,15 +1868,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1929,15 +1884,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1945,23 +1896,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1969,15 +1916,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1985,19 +1932,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2081,10 +2028,10 @@
   <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="166" zoomScaleNormal="166" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="AB8" activeCellId="0" sqref="AB8:AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.88"/>
@@ -2688,31 +2635,31 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="42" t="n">
+      <c r="S19" s="8"/>
+      <c r="T19" s="41" t="n">
         <v>10</v>
       </c>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="12" t="s">
         <v>42</v>
       </c>
@@ -2721,60 +2668,60 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="47" t="s">
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="42" t="n">
+      <c r="S21" s="46"/>
+      <c r="T21" s="41" t="n">
         <v>100</v>
       </c>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="14" t="s">
         <v>44</v>
       </c>
@@ -2785,13 +2732,13 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
-      <c r="T22" s="42" t="n">
+      <c r="T22" s="41" t="n">
         <f aca="false">T16+T19+T21</f>
         <v>210</v>
       </c>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
     </row>
@@ -2802,13 +2749,13 @@
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="22" t="s">
         <v>46</v>
       </c>
@@ -2819,12 +2766,12 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
-      <c r="T23" s="51" t="n">
+      <c r="T23" s="49" t="n">
         <v>42584</v>
       </c>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
     </row>
@@ -2833,13 +2780,13 @@
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="4" t="s">
         <v>47</v>
       </c>
@@ -2850,235 +2797,235 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55" t="s">
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="58" t="s">
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
@@ -3086,46 +3033,46 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="62" t="str">
+      <c r="D33" s="58" t="str">
         <f aca="false">D6</f>
         <v>Європа/ Europe</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63" t="s">
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64" t="n">
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="60" t="n">
         <f aca="false">K6</f>
         <v>42586</v>
       </c>
-      <c r="L33" s="64"/>
-      <c r="M33" s="63" t="s">
+      <c r="L33" s="60"/>
+      <c r="M33" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64" t="n">
+      <c r="N33" s="59"/>
+      <c r="O33" s="60" t="n">
         <f aca="false">O6</f>
         <v>42950</v>
       </c>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="65" t="s">
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="T33" s="65"/>
-      <c r="U33" s="66" t="n">
+      <c r="T33" s="61"/>
+      <c r="U33" s="62" t="n">
         <f aca="false">U6</f>
         <v>90</v>
       </c>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
@@ -3133,915 +3080,915 @@
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="68" t="s">
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="68" t="s">
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="N34" s="68"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="69" t="s">
+      <c r="N34" s="64"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="T34" s="69"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71" t="str">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67" t="str">
         <f aca="false">D8</f>
         <v>A</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72" t="s">
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="73" t="s">
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="74" t="s">
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="T35" s="74"/>
-      <c r="U35" s="75" t="s">
+      <c r="T35" s="70"/>
+      <c r="U35" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="V35" s="75"/>
-      <c r="W35" s="75"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
     </row>
     <row r="36" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="75"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
     </row>
     <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="77" t="str">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="73" t="str">
         <f aca="false">N10</f>
         <v>х</v>
       </c>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80" t="s">
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80" t="s">
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="63" t="s">
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="81" t="n">
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="77" t="n">
         <f aca="false">P11</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="82" t="s">
+      <c r="Q38" s="77"/>
+      <c r="R38" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="S38" s="82"/>
-      <c r="T38" s="66" t="n">
+      <c r="S38" s="78"/>
+      <c r="T38" s="62" t="n">
         <f aca="false">T11</f>
         <v>50</v>
       </c>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
     </row>
     <row r="39" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="83" t="str">
+      <c r="A39" s="79" t="str">
         <f aca="false">A12</f>
         <v>Chereda Olelsandr</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83" t="str">
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79" t="str">
         <f aca="false">D12</f>
         <v>EK419790</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="64" t="n">
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="60" t="n">
         <v>35431</v>
       </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="68" t="s">
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="84" t="s">
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="84"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="63" t="s">
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="83" t="n">
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="79" t="n">
         <f aca="false">P13</f>
         <v>1</v>
       </c>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="65" t="s">
+      <c r="Q40" s="79"/>
+      <c r="R40" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="S40" s="65"/>
-      <c r="T40" s="85" t="s">
+      <c r="S40" s="61"/>
+      <c r="T40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U40" s="85"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="85"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
     </row>
     <row r="41" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="71" t="str">
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="67" t="str">
         <f aca="false">D14</f>
         <v>Kiev</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="87" t="s">
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="69" t="s">
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="S41" s="69"/>
-      <c r="T41" s="88" t="s">
+      <c r="S41" s="65"/>
+      <c r="T41" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="83"/>
+      <c r="V42" s="83"/>
+      <c r="W42" s="83"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
     </row>
     <row r="43" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="86" t="s">
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="90" t="str">
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="85" t="str">
         <f aca="false">R16</f>
         <v>30000EUR</v>
       </c>
-      <c r="S43" s="90"/>
-      <c r="T43" s="91" t="n">
+      <c r="S43" s="85"/>
+      <c r="T43" s="86" t="n">
         <f aca="false">T16</f>
         <v>100</v>
       </c>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="86"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
     </row>
     <row r="44" customFormat="false" ht="0.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="76" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-      <c r="W44" s="91"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="67"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
     </row>
     <row r="45" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="80" t="str">
+      <c r="A45" s="76" t="str">
         <f aca="false">A39</f>
         <v>Chereda Olelsandr</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="92" t="str">
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="87" t="str">
         <f aca="false">E18</f>
         <v>EK419790</v>
       </c>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="93" t="n">
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="88" t="n">
         <f aca="false">I18</f>
         <v>28203</v>
       </c>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="90"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="67"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="86"/>
+      <c r="V45" s="86"/>
+      <c r="W45" s="86"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
     </row>
     <row r="46" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="94" t="n">
+      <c r="A46" s="89" t="n">
         <f aca="false">B19</f>
         <v>0</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94" t="n">
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89" t="n">
         <f aca="false">E19</f>
         <v>0</v>
       </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="95" t="n">
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89" t="n">
         <f aca="false">I19</f>
         <v>0</v>
       </c>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="96" t="s">
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="66" t="str">
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="62" t="str">
         <f aca="false">R19</f>
         <v>10000 UAH</v>
       </c>
-      <c r="S46" s="66"/>
-      <c r="T46" s="91" t="n">
+      <c r="S46" s="62"/>
+      <c r="T46" s="86" t="n">
         <f aca="false">T19</f>
         <v>10</v>
       </c>
-      <c r="U46" s="91"/>
-      <c r="V46" s="91"/>
-      <c r="W46" s="91"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
+      <c r="U46" s="86"/>
+      <c r="V46" s="86"/>
+      <c r="W46" s="86"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
     </row>
     <row r="47" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="97" t="s">
+      <c r="A47" s="89"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="66"/>
-      <c r="S47" s="66"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="67"/>
-      <c r="Y47" s="67"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="91"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="91"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
     </row>
     <row r="48" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="46" t="s">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="100" t="str">
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="94" t="str">
         <f aca="false">R21</f>
         <v>30000EUR</v>
       </c>
-      <c r="S48" s="100"/>
-      <c r="T48" s="101" t="n">
+      <c r="S48" s="94"/>
+      <c r="T48" s="95" t="n">
         <f aca="false">T21</f>
         <v>100</v>
       </c>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="67"/>
+      <c r="U48" s="95"/>
+      <c r="V48" s="95"/>
+      <c r="W48" s="95"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
     </row>
     <row r="49" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="102" t="s">
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="M49" s="102"/>
-      <c r="N49" s="102"/>
-      <c r="O49" s="102"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="102"/>
-      <c r="S49" s="102"/>
-      <c r="T49" s="91" t="n">
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="86" t="n">
         <f aca="false">T22</f>
         <v>210</v>
       </c>
-      <c r="U49" s="91"/>
-      <c r="V49" s="91"/>
-      <c r="W49" s="91"/>
-      <c r="X49" s="67"/>
-      <c r="Y49" s="67"/>
+      <c r="U49" s="86"/>
+      <c r="V49" s="86"/>
+      <c r="W49" s="86"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="103"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="105" t="s">
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="105"/>
-      <c r="S50" s="105"/>
-      <c r="T50" s="106" t="n">
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="99"/>
+      <c r="T50" s="100" t="n">
         <f aca="false">T23</f>
         <v>42584</v>
       </c>
-      <c r="U50" s="106"/>
-      <c r="V50" s="106"/>
-      <c r="W50" s="106"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="100"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="105" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="105"/>
-      <c r="S51" s="105"/>
-      <c r="T51" s="108"/>
-      <c r="U51" s="108"/>
-      <c r="V51" s="108"/>
-      <c r="W51" s="108"/>
-      <c r="X51" s="67"/>
-      <c r="Y51" s="67"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="99"/>
+      <c r="T51" s="102"/>
+      <c r="U51" s="102"/>
+      <c r="V51" s="102"/>
+      <c r="W51" s="102"/>
+      <c r="X51" s="63"/>
+      <c r="Y51" s="63"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="63" t="s">
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63" t="s">
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="63"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="67"/>
-      <c r="Y52" s="67"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
     </row>
     <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="109" t="s">
+      <c r="A53" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="110" t="s">
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="110"/>
-      <c r="L53" s="110"/>
-      <c r="M53" s="110"/>
-      <c r="N53" s="110"/>
-      <c r="O53" s="110"/>
-      <c r="P53" s="110" t="s">
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="110"/>
-      <c r="V53" s="110"/>
-      <c r="W53" s="110"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
+      <c r="Q53" s="104"/>
+      <c r="R53" s="104"/>
+      <c r="S53" s="104"/>
+      <c r="T53" s="104"/>
+      <c r="U53" s="104"/>
+      <c r="V53" s="104"/>
+      <c r="W53" s="104"/>
+      <c r="X53" s="63"/>
+      <c r="Y53" s="63"/>
     </row>
     <row r="54" customFormat="false" ht="9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="111"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110"/>
-      <c r="L54" s="110"/>
-      <c r="M54" s="110"/>
-      <c r="N54" s="110"/>
-      <c r="O54" s="110"/>
-      <c r="P54" s="110"/>
-      <c r="Q54" s="110"/>
-      <c r="R54" s="110"/>
-      <c r="S54" s="110"/>
-      <c r="T54" s="110"/>
-      <c r="U54" s="110"/>
-      <c r="V54" s="110"/>
-      <c r="W54" s="110"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="63"/>
     </row>
     <row r="55" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="114"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
-      <c r="Q55" s="114"/>
-      <c r="R55" s="114"/>
-      <c r="S55" s="114"/>
-      <c r="T55" s="114"/>
-      <c r="U55" s="114"/>
-      <c r="V55" s="114"/>
-      <c r="W55" s="114"/>
-      <c r="X55" s="67"/>
-      <c r="Y55" s="67"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="108"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="108"/>
+      <c r="Q55" s="108"/>
+      <c r="R55" s="108"/>
+      <c r="S55" s="108"/>
+      <c r="T55" s="108"/>
+      <c r="U55" s="108"/>
+      <c r="V55" s="108"/>
+      <c r="W55" s="108"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
     </row>
     <row r="56" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="60"/>
-      <c r="T56" s="60"/>
-      <c r="U56" s="60"/>
-      <c r="V56" s="60"/>
-      <c r="W56" s="60"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
     </row>
     <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="115"/>
-      <c r="B57" s="61" t="s">
+      <c r="A57" s="109"/>
+      <c r="B57" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="61"/>
-      <c r="T57" s="61"/>
-      <c r="U57" s="61"/>
-      <c r="V57" s="61"/>
-      <c r="W57" s="61"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="115"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="61"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="61"/>
-      <c r="U58" s="61"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="57"/>
+      <c r="W58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="117" t="str">
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="110" t="str">
         <f aca="false">D6</f>
         <v>Європа/ Europe</v>
       </c>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="86" t="s">
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="64" t="n">
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="60" t="n">
         <f aca="false">K6</f>
         <v>42586</v>
       </c>
-      <c r="L59" s="64"/>
-      <c r="M59" s="86" t="s">
+      <c r="L59" s="60"/>
+      <c r="M59" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="86"/>
-      <c r="O59" s="64" t="n">
+      <c r="N59" s="81"/>
+      <c r="O59" s="60" t="n">
         <f aca="false">O33</f>
         <v>42950</v>
       </c>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="96" t="s">
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="96"/>
-      <c r="U59" s="66" t="n">
+      <c r="T59" s="90"/>
+      <c r="U59" s="62" t="n">
         <f aca="false">U6</f>
         <v>90</v>
       </c>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="67"/>
+      <c r="V59" s="62"/>
+      <c r="W59" s="62"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
     </row>
     <row r="60" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="119" t="s">
+      <c r="A60" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="76" t="s">
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="76" t="s">
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="N60" s="76"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="97" t="s">
+      <c r="N60" s="72"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="T60" s="97"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="67"/>
-      <c r="Y60" s="67"/>
+      <c r="T60" s="91"/>
+      <c r="U60" s="62"/>
+      <c r="V60" s="62"/>
+      <c r="W60" s="62"/>
+      <c r="X60" s="63"/>
+      <c r="Y60" s="63"/>
     </row>
     <row r="61" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="121" t="str">
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="114" t="str">
         <f aca="false">D8</f>
         <v>A</v>
       </c>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
       <c r="H61" s="22" t="s">
         <v>12</v>
       </c>
@@ -4050,745 +3997,745 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="73" t="s">
+      <c r="N61" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="73"/>
-      <c r="R61" s="73"/>
-      <c r="S61" s="74" t="s">
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
+      <c r="S61" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="T61" s="74"/>
-      <c r="U61" s="75" t="s">
+      <c r="T61" s="70"/>
+      <c r="U61" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="V61" s="75"/>
-      <c r="W61" s="75"/>
-      <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="63"/>
+      <c r="Y61" s="63"/>
     </row>
     <row r="62" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="73"/>
-      <c r="R62" s="73"/>
-      <c r="S62" s="74"/>
-      <c r="T62" s="74"/>
-      <c r="U62" s="75"/>
-      <c r="V62" s="75"/>
-      <c r="W62" s="75"/>
-      <c r="X62" s="67"/>
-      <c r="Y62" s="67"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="69"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="63"/>
+      <c r="Y62" s="63"/>
     </row>
     <row r="63" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="122"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="121"/>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
-      <c r="N63" s="77" t="str">
+      <c r="N63" s="73" t="str">
         <f aca="false">N10</f>
         <v>х</v>
       </c>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77"/>
-      <c r="Q63" s="77"/>
-      <c r="R63" s="77"/>
-      <c r="S63" s="123"/>
-      <c r="T63" s="123"/>
-      <c r="U63" s="124"/>
-      <c r="V63" s="124"/>
-      <c r="W63" s="124"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
+      <c r="U63" s="117"/>
+      <c r="V63" s="117"/>
+      <c r="W63" s="117"/>
+      <c r="X63" s="63"/>
+      <c r="Y63" s="63"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="125" t="s">
+      <c r="A64" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="126" t="s">
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126" t="s">
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="119"/>
+      <c r="H64" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="I64" s="126"/>
-      <c r="J64" s="126"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="70" t="s">
+      <c r="I64" s="119"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="119"/>
+      <c r="L64" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="127" t="n">
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="120" t="n">
         <f aca="false">P11</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="127"/>
-      <c r="R64" s="70" t="s">
+      <c r="Q64" s="120"/>
+      <c r="R64" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="S64" s="70"/>
-      <c r="T64" s="128" t="n">
+      <c r="S64" s="66"/>
+      <c r="T64" s="121" t="n">
         <f aca="false">T11</f>
         <v>50</v>
       </c>
-      <c r="U64" s="128"/>
-      <c r="V64" s="128"/>
-      <c r="W64" s="128"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="67"/>
+      <c r="U64" s="121"/>
+      <c r="V64" s="121"/>
+      <c r="W64" s="121"/>
+      <c r="X64" s="63"/>
+      <c r="Y64" s="63"/>
     </row>
     <row r="65" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="129" t="str">
+      <c r="A65" s="122" t="str">
         <f aca="false">A12</f>
         <v>Chereda Olelsandr</v>
       </c>
-      <c r="B65" s="129"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="83" t="str">
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="79" t="str">
         <f aca="false">D12</f>
         <v>EK419790</v>
       </c>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="64" t="n">
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="60" t="n">
         <f aca="false">H12</f>
         <v>28203</v>
       </c>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="76" t="s">
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-      <c r="P65" s="127"/>
-      <c r="Q65" s="127"/>
-      <c r="R65" s="76" t="s">
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="120"/>
+      <c r="Q65" s="120"/>
+      <c r="R65" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="S65" s="76"/>
-      <c r="T65" s="128"/>
-      <c r="U65" s="128"/>
-      <c r="V65" s="128"/>
-      <c r="W65" s="128"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="67"/>
+      <c r="S65" s="72"/>
+      <c r="T65" s="121"/>
+      <c r="U65" s="121"/>
+      <c r="V65" s="121"/>
+      <c r="W65" s="121"/>
+      <c r="X65" s="63"/>
+      <c r="Y65" s="63"/>
       <c r="AA65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="129"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="86" t="s">
+      <c r="A66" s="122"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="M66" s="86"/>
-      <c r="N66" s="86"/>
-      <c r="O66" s="86"/>
-      <c r="P66" s="83" t="n">
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="79" t="n">
         <f aca="false">P13</f>
         <v>1</v>
       </c>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="86" t="s">
+      <c r="Q66" s="79"/>
+      <c r="R66" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="S66" s="86"/>
-      <c r="T66" s="65" t="s">
+      <c r="S66" s="81"/>
+      <c r="T66" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="U66" s="65"/>
-      <c r="V66" s="65"/>
-      <c r="W66" s="65"/>
-      <c r="X66" s="67"/>
-      <c r="Y66" s="67"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="63"/>
+      <c r="Y66" s="63"/>
     </row>
     <row r="67" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="130" t="s">
+      <c r="A67" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="130"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="71" t="str">
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="67" t="str">
         <f aca="false">D14</f>
         <v>Kiev</v>
       </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="76" t="s">
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M67" s="76"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="76"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="83"/>
-      <c r="R67" s="76" t="s">
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="79"/>
+      <c r="Q67" s="79"/>
+      <c r="R67" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="S67" s="76"/>
-      <c r="T67" s="69" t="s">
+      <c r="S67" s="72"/>
+      <c r="T67" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="U67" s="69"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="69"/>
-      <c r="X67" s="67"/>
-      <c r="Y67" s="67"/>
+      <c r="U67" s="65"/>
+      <c r="V67" s="65"/>
+      <c r="W67" s="65"/>
+      <c r="X67" s="63"/>
+      <c r="Y67" s="63"/>
     </row>
     <row r="68" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="131" t="s">
+      <c r="A68" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="131"/>
-      <c r="C68" s="131"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="76"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="76"/>
-      <c r="O68" s="76"/>
-      <c r="P68" s="83"/>
-      <c r="Q68" s="83"/>
-      <c r="R68" s="76"/>
-      <c r="S68" s="76"/>
-      <c r="T68" s="69"/>
-      <c r="U68" s="69"/>
-      <c r="V68" s="69"/>
-      <c r="W68" s="69"/>
-      <c r="X68" s="67"/>
-      <c r="Y68" s="67"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="79"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="65"/>
+      <c r="U68" s="65"/>
+      <c r="V68" s="65"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="63"/>
+      <c r="Y68" s="63"/>
     </row>
     <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="132" t="s">
+      <c r="A69" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="132"/>
-      <c r="C69" s="132"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="86" t="s">
+      <c r="B69" s="124"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="M69" s="86"/>
-      <c r="N69" s="86"/>
-      <c r="O69" s="86"/>
-      <c r="P69" s="86"/>
-      <c r="Q69" s="86"/>
-      <c r="R69" s="83" t="str">
+      <c r="M69" s="81"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="81"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="79" t="str">
         <f aca="false">R16</f>
         <v>30000EUR</v>
       </c>
-      <c r="S69" s="83"/>
-      <c r="T69" s="133" t="n">
+      <c r="S69" s="79"/>
+      <c r="T69" s="125" t="n">
         <f aca="false">T43</f>
         <v>100</v>
       </c>
-      <c r="U69" s="133"/>
-      <c r="V69" s="133"/>
-      <c r="W69" s="133"/>
-      <c r="X69" s="67"/>
-      <c r="Y69" s="67"/>
+      <c r="U69" s="125"/>
+      <c r="V69" s="125"/>
+      <c r="W69" s="125"/>
+      <c r="X69" s="63"/>
+      <c r="Y69" s="63"/>
     </row>
     <row r="70" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="132"/>
-      <c r="B70" s="132"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="132"/>
-      <c r="E70" s="132"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="76" t="s">
+      <c r="A70" s="124"/>
+      <c r="B70" s="124"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="M70" s="76"/>
-      <c r="N70" s="76"/>
-      <c r="O70" s="76"/>
-      <c r="P70" s="76"/>
-      <c r="Q70" s="76"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="83"/>
-      <c r="T70" s="133"/>
-      <c r="U70" s="133"/>
-      <c r="V70" s="133"/>
-      <c r="W70" s="133"/>
-      <c r="X70" s="67"/>
-      <c r="Y70" s="67"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="125"/>
+      <c r="U70" s="125"/>
+      <c r="V70" s="125"/>
+      <c r="W70" s="125"/>
+      <c r="X70" s="63"/>
+      <c r="Y70" s="63"/>
     </row>
     <row r="71" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="62" t="str">
+      <c r="A71" s="58" t="str">
         <f aca="false">A18</f>
         <v>Chereda Olelsandr</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="71" t="str">
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="67" t="str">
         <f aca="false">E18</f>
         <v>EK419790</v>
       </c>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="134" t="n">
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="126" t="n">
         <f aca="false">I18</f>
         <v>28203</v>
       </c>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="76"/>
-      <c r="Q71" s="76"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83"/>
-      <c r="T71" s="133"/>
-      <c r="U71" s="133"/>
-      <c r="V71" s="133"/>
-      <c r="W71" s="133"/>
-      <c r="X71" s="67"/>
-      <c r="Y71" s="67"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="125"/>
+      <c r="U71" s="125"/>
+      <c r="V71" s="125"/>
+      <c r="W71" s="125"/>
+      <c r="X71" s="63"/>
+      <c r="Y71" s="63"/>
     </row>
     <row r="72" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="62"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="134"/>
-      <c r="J72" s="134"/>
-      <c r="K72" s="134"/>
-      <c r="L72" s="86" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="M72" s="86"/>
-      <c r="N72" s="86"/>
-      <c r="O72" s="86"/>
-      <c r="P72" s="86"/>
-      <c r="Q72" s="86"/>
-      <c r="R72" s="83" t="str">
+      <c r="M72" s="81"/>
+      <c r="N72" s="81"/>
+      <c r="O72" s="81"/>
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="79" t="str">
         <f aca="false">R19</f>
         <v>10000 UAH</v>
       </c>
-      <c r="S72" s="83"/>
-      <c r="T72" s="133" t="n">
+      <c r="S72" s="79"/>
+      <c r="T72" s="125" t="n">
         <f aca="false">T46</f>
         <v>10</v>
       </c>
-      <c r="U72" s="133"/>
-      <c r="V72" s="133"/>
-      <c r="W72" s="133"/>
-      <c r="X72" s="67"/>
-      <c r="Y72" s="67"/>
+      <c r="U72" s="125"/>
+      <c r="V72" s="125"/>
+      <c r="W72" s="125"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
     </row>
     <row r="73" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="83"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="135"/>
-      <c r="K73" s="135"/>
-      <c r="L73" s="76" t="s">
+      <c r="A73" s="79"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="127"/>
+      <c r="L73" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="M73" s="76"/>
-      <c r="N73" s="76"/>
-      <c r="O73" s="76"/>
-      <c r="P73" s="76"/>
-      <c r="Q73" s="76"/>
-      <c r="R73" s="83"/>
-      <c r="S73" s="83"/>
-      <c r="T73" s="133"/>
-      <c r="U73" s="133"/>
-      <c r="V73" s="133"/>
-      <c r="W73" s="133"/>
-      <c r="X73" s="67"/>
-      <c r="Y73" s="67"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="125"/>
+      <c r="U73" s="125"/>
+      <c r="V73" s="125"/>
+      <c r="W73" s="125"/>
+      <c r="X73" s="63"/>
+      <c r="Y73" s="63"/>
     </row>
     <row r="74" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="83"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="135"/>
-      <c r="J74" s="135"/>
-      <c r="K74" s="135"/>
-      <c r="L74" s="46" t="s">
+      <c r="A74" s="79"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="127"/>
+      <c r="L74" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="136" t="str">
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="128" t="str">
         <f aca="false">R21</f>
         <v>30000EUR</v>
       </c>
-      <c r="S74" s="136"/>
-      <c r="T74" s="133" t="n">
+      <c r="S74" s="128"/>
+      <c r="T74" s="125" t="n">
         <f aca="false">T21</f>
         <v>100</v>
       </c>
-      <c r="U74" s="133"/>
-      <c r="V74" s="133"/>
-      <c r="W74" s="133"/>
-      <c r="X74" s="67"/>
-      <c r="Y74" s="67"/>
+      <c r="U74" s="125"/>
+      <c r="V74" s="125"/>
+      <c r="W74" s="125"/>
+      <c r="X74" s="63"/>
+      <c r="Y74" s="63"/>
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="83"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="135"/>
-      <c r="J75" s="135"/>
-      <c r="K75" s="135"/>
-      <c r="L75" s="80" t="s">
+      <c r="A75" s="79"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="127"/>
+      <c r="L75" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="80"/>
-      <c r="Q75" s="80"/>
-      <c r="R75" s="80"/>
-      <c r="S75" s="80"/>
-      <c r="T75" s="133" t="n">
+      <c r="M75" s="76"/>
+      <c r="N75" s="76"/>
+      <c r="O75" s="76"/>
+      <c r="P75" s="76"/>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="76"/>
+      <c r="S75" s="76"/>
+      <c r="T75" s="125" t="n">
         <f aca="false">T22</f>
         <v>210</v>
       </c>
-      <c r="U75" s="133"/>
-      <c r="V75" s="133"/>
-      <c r="W75" s="133"/>
-      <c r="X75" s="67"/>
-      <c r="Y75" s="67"/>
+      <c r="U75" s="125"/>
+      <c r="V75" s="125"/>
+      <c r="W75" s="125"/>
+      <c r="X75" s="63"/>
+      <c r="Y75" s="63"/>
     </row>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="83"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="135"/>
-      <c r="J76" s="135"/>
-      <c r="K76" s="135"/>
-      <c r="L76" s="137" t="s">
+      <c r="A76" s="79"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="127"/>
+      <c r="L76" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="M76" s="137"/>
-      <c r="N76" s="137"/>
-      <c r="O76" s="137"/>
-      <c r="P76" s="137"/>
-      <c r="Q76" s="137"/>
-      <c r="R76" s="137"/>
-      <c r="S76" s="137"/>
-      <c r="T76" s="138" t="n">
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="68"/>
+      <c r="Q76" s="68"/>
+      <c r="R76" s="68"/>
+      <c r="S76" s="68"/>
+      <c r="T76" s="129" t="n">
         <f aca="false">T23</f>
         <v>42584</v>
       </c>
-      <c r="U76" s="138"/>
-      <c r="V76" s="138"/>
-      <c r="W76" s="138"/>
-      <c r="X76" s="67"/>
-      <c r="Y76" s="67"/>
+      <c r="U76" s="129"/>
+      <c r="V76" s="129"/>
+      <c r="W76" s="129"/>
+      <c r="X76" s="63"/>
+      <c r="Y76" s="63"/>
     </row>
     <row r="77" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="132"/>
-      <c r="C77" s="132"/>
-      <c r="D77" s="132"/>
-      <c r="E77" s="139"/>
-      <c r="F77" s="139"/>
-      <c r="G77" s="139"/>
-      <c r="H77" s="139"/>
-      <c r="I77" s="139"/>
-      <c r="J77" s="139"/>
-      <c r="K77" s="139"/>
-      <c r="L77" s="140" t="s">
+      <c r="B77" s="124"/>
+      <c r="C77" s="124"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="130"/>
+      <c r="G77" s="130"/>
+      <c r="H77" s="130"/>
+      <c r="I77" s="130"/>
+      <c r="J77" s="130"/>
+      <c r="K77" s="130"/>
+      <c r="L77" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="M77" s="140"/>
-      <c r="N77" s="140"/>
-      <c r="O77" s="140"/>
-      <c r="P77" s="140"/>
-      <c r="Q77" s="140"/>
-      <c r="R77" s="140"/>
-      <c r="S77" s="140"/>
-      <c r="T77" s="141"/>
-      <c r="U77" s="141"/>
-      <c r="V77" s="141"/>
-      <c r="W77" s="141"/>
-      <c r="X77" s="67"/>
-      <c r="Y77" s="67"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="131"/>
+      <c r="O77" s="131"/>
+      <c r="P77" s="131"/>
+      <c r="Q77" s="131"/>
+      <c r="R77" s="131"/>
+      <c r="S77" s="131"/>
+      <c r="T77" s="132"/>
+      <c r="U77" s="132"/>
+      <c r="V77" s="132"/>
+      <c r="W77" s="132"/>
+      <c r="X77" s="63"/>
+      <c r="Y77" s="63"/>
     </row>
     <row r="78" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="130" t="s">
+      <c r="A78" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="130"/>
-      <c r="C78" s="130"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="130"/>
-      <c r="F78" s="130"/>
-      <c r="G78" s="86" t="s">
+      <c r="B78" s="123"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="86"/>
-      <c r="K78" s="86"/>
-      <c r="L78" s="86"/>
-      <c r="M78" s="86"/>
-      <c r="N78" s="86"/>
-      <c r="O78" s="86"/>
-      <c r="P78" s="65" t="s">
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="81"/>
+      <c r="M78" s="81"/>
+      <c r="N78" s="81"/>
+      <c r="O78" s="81"/>
+      <c r="P78" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="65"/>
-      <c r="S78" s="65"/>
-      <c r="T78" s="65"/>
-      <c r="U78" s="65"/>
-      <c r="V78" s="65"/>
-      <c r="W78" s="65"/>
-      <c r="X78" s="67"/>
-      <c r="Y78" s="67"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="61"/>
+      <c r="X78" s="63"/>
+      <c r="Y78" s="63"/>
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="142" t="s">
+      <c r="A79" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="142"/>
-      <c r="C79" s="142"/>
-      <c r="D79" s="142"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="142"/>
-      <c r="G79" s="122" t="s">
+      <c r="B79" s="133"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="133"/>
+      <c r="G79" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="H79" s="122"/>
-      <c r="I79" s="122"/>
-      <c r="J79" s="122"/>
-      <c r="K79" s="122"/>
-      <c r="L79" s="122"/>
-      <c r="M79" s="122"/>
-      <c r="N79" s="122"/>
-      <c r="O79" s="122"/>
-      <c r="P79" s="143" t="s">
+      <c r="H79" s="115"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="115"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="115"/>
+      <c r="M79" s="115"/>
+      <c r="N79" s="115"/>
+      <c r="O79" s="115"/>
+      <c r="P79" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="Q79" s="143"/>
-      <c r="R79" s="143"/>
-      <c r="S79" s="143"/>
-      <c r="T79" s="143"/>
-      <c r="U79" s="143"/>
-      <c r="V79" s="143"/>
-      <c r="W79" s="143"/>
-      <c r="X79" s="67"/>
-      <c r="Y79" s="67"/>
+      <c r="Q79" s="134"/>
+      <c r="R79" s="134"/>
+      <c r="S79" s="134"/>
+      <c r="T79" s="134"/>
+      <c r="U79" s="134"/>
+      <c r="V79" s="134"/>
+      <c r="W79" s="134"/>
+      <c r="X79" s="63"/>
+      <c r="Y79" s="63"/>
     </row>
     <row r="80" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="142"/>
-      <c r="B80" s="142"/>
-      <c r="C80" s="142"/>
-      <c r="D80" s="142"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="142"/>
-      <c r="G80" s="122"/>
-      <c r="H80" s="122"/>
-      <c r="I80" s="122"/>
-      <c r="J80" s="122"/>
-      <c r="K80" s="122"/>
-      <c r="L80" s="122"/>
-      <c r="M80" s="122"/>
-      <c r="N80" s="122"/>
-      <c r="O80" s="122"/>
-      <c r="P80" s="144" t="s">
+      <c r="A80" s="133"/>
+      <c r="B80" s="133"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="133"/>
+      <c r="G80" s="115"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="115"/>
+      <c r="M80" s="115"/>
+      <c r="N80" s="115"/>
+      <c r="O80" s="115"/>
+      <c r="P80" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="Q80" s="144"/>
-      <c r="R80" s="144"/>
-      <c r="S80" s="144"/>
-      <c r="T80" s="144"/>
-      <c r="U80" s="144"/>
-      <c r="V80" s="144"/>
-      <c r="W80" s="144"/>
-      <c r="X80" s="67"/>
-      <c r="Y80" s="67"/>
+      <c r="Q80" s="135"/>
+      <c r="R80" s="135"/>
+      <c r="S80" s="135"/>
+      <c r="T80" s="135"/>
+      <c r="U80" s="135"/>
+      <c r="V80" s="135"/>
+      <c r="W80" s="135"/>
+      <c r="X80" s="63"/>
+      <c r="Y80" s="63"/>
     </row>
     <row r="81" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="56"/>
-      <c r="B81" s="145"/>
-      <c r="C81" s="145"/>
-      <c r="D81" s="145"/>
-      <c r="E81" s="145"/>
-      <c r="F81" s="146"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="122"/>
-      <c r="I81" s="122"/>
-      <c r="J81" s="122"/>
-      <c r="K81" s="122"/>
-      <c r="L81" s="122"/>
-      <c r="M81" s="122"/>
-      <c r="N81" s="122"/>
-      <c r="O81" s="122"/>
-      <c r="P81" s="147"/>
-      <c r="Q81" s="147"/>
-      <c r="R81" s="147"/>
-      <c r="S81" s="147"/>
-      <c r="T81" s="147"/>
-      <c r="U81" s="147"/>
-      <c r="V81" s="147"/>
-      <c r="W81" s="147"/>
-      <c r="X81" s="67"/>
-      <c r="Y81" s="67"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="115"/>
+      <c r="K81" s="115"/>
+      <c r="L81" s="115"/>
+      <c r="M81" s="115"/>
+      <c r="N81" s="115"/>
+      <c r="O81" s="115"/>
+      <c r="P81" s="138"/>
+      <c r="Q81" s="138"/>
+      <c r="R81" s="138"/>
+      <c r="S81" s="138"/>
+      <c r="T81" s="138"/>
+      <c r="U81" s="138"/>
+      <c r="V81" s="138"/>
+      <c r="W81" s="138"/>
+      <c r="X81" s="63"/>
+      <c r="Y81" s="63"/>
     </row>
     <row r="82" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="148" t="str">
+      <c r="A82" s="139" t="str">
         <f aca="false">A28</f>
-        <v>ТОВАРИСТВО З ДОДАТКОВОЮ ВІДПОВЫДАЛЬНІСТЮ «СТРАХОВА КОМПАНІЯ «БЕНЄФІТ»  Адреса: Україна, 030262, м. Київ,  Столичне шосе 101 В,   тел. 0 800 33-05-54 Insurer: ADDITIONAL LIABILITY COMPANY «INSURANCE COMPANY «BENEFIT» Координати Контакт центра: +38 044 594 27 94 (мова спілкування українська, російська, англійська)  </v>
-      </c>
-      <c r="B82" s="148"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="148"/>
-      <c r="E82" s="148"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="148"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="148"/>
-      <c r="J82" s="148"/>
-      <c r="K82" s="148"/>
-      <c r="L82" s="148"/>
-      <c r="M82" s="148"/>
-      <c r="N82" s="148"/>
-      <c r="O82" s="148"/>
-      <c r="P82" s="148"/>
-      <c r="Q82" s="148"/>
-      <c r="R82" s="148"/>
-      <c r="S82" s="148"/>
-      <c r="T82" s="148"/>
-      <c r="U82" s="148"/>
-      <c r="V82" s="148"/>
-      <c r="W82" s="148"/>
-      <c r="X82" s="67"/>
-      <c r="Y82" s="67"/>
+        <v>ТОВАРИСТВО З ДОДАТКОВОЮ ВІДПОВЫДАЛЬНІСТЮ «СТРАХОВА КОМПАНІЯ «БЕНЄФІТ»  Адреса: Україна, 030262, м. Київ,  Столичне шосе 101 В,   тел. 0 800 33-05-54 Insurer: ADDITIONAL LIABILITY COMPANY «INSURANCE COMPANY «BENEFIT» Координати Контакт центра: +38 044 594 27 94 (мова спілкування українська, російська, англійська)</v>
+      </c>
+      <c r="B82" s="139"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
+      <c r="J82" s="139"/>
+      <c r="K82" s="139"/>
+      <c r="L82" s="139"/>
+      <c r="M82" s="139"/>
+      <c r="N82" s="139"/>
+      <c r="O82" s="139"/>
+      <c r="P82" s="139"/>
+      <c r="Q82" s="139"/>
+      <c r="R82" s="139"/>
+      <c r="S82" s="139"/>
+      <c r="T82" s="139"/>
+      <c r="U82" s="139"/>
+      <c r="V82" s="139"/>
+      <c r="W82" s="139"/>
+      <c r="X82" s="63"/>
+      <c r="Y82" s="63"/>
     </row>
     <row r="83" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="148"/>
-      <c r="B83" s="148"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
-      <c r="F83" s="148"/>
-      <c r="G83" s="148"/>
-      <c r="H83" s="148"/>
-      <c r="I83" s="148"/>
-      <c r="J83" s="148"/>
-      <c r="K83" s="148"/>
-      <c r="L83" s="148"/>
-      <c r="M83" s="148"/>
-      <c r="N83" s="148"/>
-      <c r="O83" s="148"/>
-      <c r="P83" s="148"/>
-      <c r="Q83" s="148"/>
-      <c r="R83" s="148"/>
-      <c r="S83" s="148"/>
-      <c r="T83" s="148"/>
-      <c r="U83" s="148"/>
-      <c r="V83" s="148"/>
-      <c r="W83" s="148"/>
-      <c r="X83" s="67"/>
-      <c r="Y83" s="67"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="139"/>
+      <c r="C83" s="139"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139"/>
+      <c r="F83" s="139"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="139"/>
+      <c r="J83" s="139"/>
+      <c r="K83" s="139"/>
+      <c r="L83" s="139"/>
+      <c r="M83" s="139"/>
+      <c r="N83" s="139"/>
+      <c r="O83" s="139"/>
+      <c r="P83" s="139"/>
+      <c r="Q83" s="139"/>
+      <c r="R83" s="139"/>
+      <c r="S83" s="139"/>
+      <c r="T83" s="139"/>
+      <c r="U83" s="139"/>
+      <c r="V83" s="139"/>
+      <c r="W83" s="139"/>
+      <c r="X83" s="63"/>
+      <c r="Y83" s="63"/>
     </row>
     <row r="84" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5061,10 +5008,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB8:AF15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5084,10 +5031,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB8:AF15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/TREVEL виз центр новий.xlsx
+++ b/TREVEL виз центр новий.xlsx
@@ -33,7 +33,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">ДОГОІР СТРАХУВАННЯ ПОДОРОЖУЮЧИХ ЗА КОРДОН </t>
+      <t xml:space="preserve">ДОГОВІР СТРАХУВАННЯ ПОДОРОЖУЮЧИХ ЗА КОРДОН </t>
     </r>
     <r>
       <rPr>
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="166" zoomScaleNormal="166" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB8" activeCellId="0" sqref="AB8:AF15"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5008,7 +5008,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB8:AF15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5031,7 +5031,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB8:AF15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
